--- a/Design Documents/gant.xlsx
+++ b/Design Documents/gant.xlsx
@@ -518,6 +518,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -526,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,15 +850,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F34" sqref="B2:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="20" width="13.7109375" style="3" customWidth="1"/>
@@ -1479,34 +1478,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
       <c r="AA1" s="30"/>
       <c r="AB1" s="30"/>
       <c r="AC1" s="30"/>
@@ -1590,11 +1589,11 @@
       <c r="Z2" s="31">
         <v>26</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
     </row>
     <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
@@ -1622,10 +1621,10 @@
       <c r="W3" s="32"/>
       <c r="X3" s="32"/>
       <c r="Y3" s="32"/>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="37"/>
+      <c r="AA3" s="39"/>
       <c r="AB3" s="30"/>
       <c r="AC3" s="30"/>
     </row>
@@ -1673,16 +1672,16 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
       <c r="U5" s="34"/>
       <c r="V5" s="34"/>
       <c r="W5" s="34"/>
@@ -1734,11 +1733,11 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -1803,19 +1802,19 @@
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
@@ -1877,10 +1876,10 @@
       <c r="V11" s="30"/>
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
-      <c r="Y11" s="38" t="s">
+      <c r="Y11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Z11" s="38"/>
+      <c r="Z11" s="35"/>
       <c r="AA11" s="34"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
@@ -1942,10 +1941,10 @@
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
-      <c r="Z13" s="38" t="s">
+      <c r="Z13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AA13" s="38"/>
+      <c r="AA13" s="35"/>
       <c r="AB13" s="34"/>
       <c r="AC13" s="34"/>
     </row>
@@ -2006,11 +2005,11 @@
       <c r="W15" s="33"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
-      <c r="Z15" s="39" t="s">
+      <c r="Z15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
       <c r="AC15" s="34"/>
     </row>
   </sheetData>

--- a/Design Documents/gant.xlsx
+++ b/Design Documents/gant.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Task name</t>
   </si>
@@ -106,16 +106,13 @@
   </si>
   <si>
     <t>Final Revision</t>
-  </si>
-  <si>
-    <t>1, Introduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +191,35 @@
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -438,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,9 +532,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -518,20 +541,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T47"/>
+  <dimension ref="B2:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="B2:F34"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,8 +1334,8 @@
         <v>43064</v>
       </c>
       <c r="E28" s="21">
-        <f>SUM(E30:E34)</f>
-        <v>19.5</v>
+        <f>SUM(E30:E35)</f>
+        <v>24.5</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -1355,76 +1396,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="10">
+        <v>43060</v>
+      </c>
+      <c r="D33" s="10">
+        <v>43062</v>
+      </c>
+      <c r="E33" s="11">
+        <v>6</v>
+      </c>
+      <c r="F33" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C34" s="13">
         <v>43055</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <v>43060</v>
       </c>
-      <c r="E33" s="14">
-        <v>4</v>
-      </c>
-      <c r="F33" s="15">
+      <c r="E34" s="14">
+        <v>3</v>
+      </c>
+      <c r="F34" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26" t="s">
+    <row r="35" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C35" s="27">
         <v>43059</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D35" s="27">
         <v>43064</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E35" s="28">
         <v>3</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F35" s="29">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="2:6" ht="21" x14ac:dyDescent="0.6">
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="2:6" ht="21" x14ac:dyDescent="0.6">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
@@ -1435,31 +1486,38 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="14"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1469,240 +1527,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AC15"/>
+      <selection activeCell="A3" sqref="A3:AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31">
-        <v>3</v>
-      </c>
-      <c r="D2" s="31">
-        <v>4</v>
-      </c>
-      <c r="E2" s="31">
-        <v>5</v>
-      </c>
-      <c r="F2" s="31">
-        <v>6</v>
-      </c>
-      <c r="G2" s="31">
-        <v>7</v>
-      </c>
-      <c r="H2" s="31">
-        <v>8</v>
-      </c>
-      <c r="I2" s="31">
-        <v>9</v>
-      </c>
-      <c r="J2" s="31">
-        <v>10</v>
-      </c>
-      <c r="K2" s="31">
-        <v>11</v>
-      </c>
-      <c r="L2" s="31">
-        <v>12</v>
-      </c>
-      <c r="M2" s="31">
-        <v>13</v>
-      </c>
-      <c r="N2" s="31">
-        <v>14</v>
-      </c>
-      <c r="O2" s="31">
-        <v>15</v>
-      </c>
-      <c r="P2" s="31">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="31">
-        <v>17</v>
-      </c>
-      <c r="R2" s="31">
-        <v>18</v>
-      </c>
-      <c r="S2" s="31">
-        <v>19</v>
-      </c>
-      <c r="T2" s="31">
-        <v>20</v>
-      </c>
-      <c r="U2" s="31">
-        <v>21</v>
-      </c>
-      <c r="V2" s="31">
-        <v>22</v>
-      </c>
-      <c r="W2" s="31">
-        <v>23</v>
-      </c>
-      <c r="X2" s="31">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="31">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="31">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="38" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
     </row>
-    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="39"/>
+    <row r="3" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="30"/>
       <c r="AB3" s="30"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-    </row>
-    <row r="5" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="44">
+        <v>2</v>
+      </c>
+      <c r="C4" s="44">
+        <v>3</v>
+      </c>
+      <c r="D4" s="44">
+        <v>4</v>
+      </c>
+      <c r="E4" s="44">
+        <v>5</v>
+      </c>
+      <c r="F4" s="44">
+        <v>6</v>
+      </c>
+      <c r="G4" s="44">
+        <v>7</v>
+      </c>
+      <c r="H4" s="44">
+        <v>8</v>
+      </c>
+      <c r="I4" s="44">
+        <v>9</v>
+      </c>
+      <c r="J4" s="44">
+        <v>10</v>
+      </c>
+      <c r="K4" s="44">
+        <v>11</v>
+      </c>
+      <c r="L4" s="44">
+        <v>12</v>
+      </c>
+      <c r="M4" s="44">
+        <v>13</v>
+      </c>
+      <c r="N4" s="44">
+        <v>14</v>
+      </c>
+      <c r="O4" s="44">
+        <v>15</v>
+      </c>
+      <c r="P4" s="44">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>17</v>
+      </c>
+      <c r="R4" s="44">
+        <v>18</v>
+      </c>
+      <c r="S4" s="44">
+        <v>19</v>
+      </c>
+      <c r="T4" s="44">
+        <v>20</v>
+      </c>
+      <c r="U4" s="44">
+        <v>21</v>
+      </c>
+      <c r="V4" s="44">
+        <v>22</v>
+      </c>
+      <c r="W4" s="44">
+        <v>23</v>
+      </c>
+      <c r="X4" s="44">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="44">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="44">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+    </row>
+    <row r="5" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-    </row>
-    <row r="6" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+    </row>
+    <row r="6" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -1711,195 +1767,195 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+    </row>
+    <row r="7" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-    </row>
-    <row r="8" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+    </row>
+    <row r="8" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-    </row>
-    <row r="9" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+    </row>
+    <row r="9" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-    </row>
-    <row r="10" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+    </row>
+    <row r="10" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-    </row>
-    <row r="11" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+    </row>
+    <row r="11" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-    </row>
-    <row r="12" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+    </row>
+    <row r="12" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
@@ -1911,119 +1967,188 @@
       <c r="X12" s="30"/>
       <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-    </row>
-    <row r="13" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+    </row>
+    <row r="13" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-    </row>
-    <row r="14" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+    </row>
+    <row r="14" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-    </row>
-    <row r="15" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+    </row>
+    <row r="15" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="36" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="33"/>
+    </row>
+    <row r="16" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+    </row>
+    <row r="17" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="34"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="Y11:Z11"/>
+  <mergeCells count="12">
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="Z17:AB17"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="O9:Y9"/>
+    <mergeCell ref="A3:Z3"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="Y11:AC11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>